--- a/ZhangInvest/现有接口.xlsx
+++ b/ZhangInvest/现有接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Python2024\ZhangInvest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject\ZhangInvest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF11F8-291D-49E2-B7B6-ADD57CD8F6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA1A59-A024-4B45-A03C-0418A866A5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="210" windowWidth="18825" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1130" windowWidth="24350" windowHeight="19790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,18 @@
   <si>
     <t>secid：东财指数/股票代码、f57:指数/股票代码、f58：指数名称、f43数值/100：指数数值、f169数值/100：当前指数涨跌数值、f170数值/100加%：当前指数涨跌幅数值。
 stock_code=指数/股票代码，道琼斯："100.DJIA"，纳斯达克："100.NDX"，标普500："100.SPX"，上证指数："1.000001"，深证成指："0.399001"，上证主板股票："1.******"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取债券公司主营业务及公司亮点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_code=指数/股票代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://basic.10jqka.com.cn/{stock_code}/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,10 +299,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,6 +311,9 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -314,9 +328,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,15 +346,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{210D5FE1-EA57-4B16-B053-4D82D8F10C15}" name="表1" displayName="表1" ref="A1:J26" totalsRowShown="0">
   <autoFilter ref="A1:J26" xr:uid="{210D5FE1-EA57-4B16-B053-4D82D8F10C15}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8FCAD577-79CD-430A-8968-DD0133B32110}" name="分类" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8FCAD577-79CD-430A-8968-DD0133B32110}" name="分类" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{7559FDB3-5EDA-4CCE-A50A-169813056EE2}" name="细分"/>
-    <tableColumn id="5" xr3:uid="{1989BCE0-DAEC-48B8-8DC6-BE75C221BB66}" name="来源" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{A8BF2B35-0BFB-48B1-85C7-FF3572E136C8}" name="流式接口" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D89F901D-0013-4B75-8C49-F06E85E37200}" name="适用评级" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1989BCE0-DAEC-48B8-8DC6-BE75C221BB66}" name="来源" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A8BF2B35-0BFB-48B1-85C7-FF3572E136C8}" name="流式接口" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{D89F901D-0013-4B75-8C49-F06E85E37200}" name="适用评级" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{D4DBD9E4-6A9C-4CFB-9C80-2FB9E584619E}" name="评级原因"/>
     <tableColumn id="7" xr3:uid="{803AB82A-687B-42C1-8004-5479C74A33C2}" name="用途"/>
-    <tableColumn id="10" xr3:uid="{7DAF8B93-F963-4F74-816D-80454E436A56}" name="应用中" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9851A76E-2549-4420-875F-A9388BC9650D}" name="备注" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{7DAF8B93-F963-4F74-816D-80454E436A56}" name="应用中" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9851A76E-2549-4420-875F-A9388BC9650D}" name="备注" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{E481AA83-370D-4051-8ECA-B35933E7A849}" name="接口地址"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -613,40 +624,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="27.875" customWidth="1"/>
-    <col min="10" max="10" width="58.875" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="58.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F1" t="s">
@@ -655,7 +666,7 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I1" t="s">
@@ -665,20 +676,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
@@ -687,62 +698,62 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" t="s">
@@ -752,46 +763,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F6" t="s">
@@ -800,7 +811,7 @@
       <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
@@ -810,20 +821,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F7" t="s">
@@ -832,7 +843,7 @@
       <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
@@ -842,20 +853,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F8" t="s">
@@ -864,7 +875,7 @@
       <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
@@ -874,49 +885,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
@@ -925,14 +936,43 @@
       <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -955,11 +995,12 @@
     <hyperlink ref="J8" r:id="rId7" xr:uid="{ED8707F4-970F-459C-9DA4-B39224F1273B}"/>
     <hyperlink ref="J9" r:id="rId8" xr:uid="{6245A2A6-86AD-420C-8C47-C9B8AAA61432}"/>
     <hyperlink ref="J10" r:id="rId9" display="https://push2.eastmoney.com/api/qt/stock/get?invt=2&amp;fltt=1&amp;fields=f58,f107,f57,f43,f59,f169,f170,f152,f46,f60,f44,f45,f47,f48,f19,f532,f39,f161,f49,f171,f50,f86,f600,f601,f154,f84,f85,f168,f108,f116,f167,f164,f92,f71,f117,f292,f113,f114,f115,f119,f120,f121,f122,f296&amp;secid={stock_code}" xr:uid="{18F7636F-76C9-43BD-9436-77D31852B110}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{59C2A785-3353-484C-ADFA-3A76B3B852AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ZhangInvest/现有接口.xlsx
+++ b/ZhangInvest/现有接口.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject\ZhangInvest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA1A59-A024-4B45-A03C-0418A866A5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4024FC4-827F-4B14-86D3-9F984D9ABD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1130" windowWidth="24350" windowHeight="19790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18150" yWindow="6560" windowWidth="20300" windowHeight="12070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取当前股/指数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>股/指数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,19 +138,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取当前股/指现价数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取当前24小时电报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前新债数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前新债转股价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -212,14 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取当前指数价格以构建走势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前指数信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应用中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,6 +232,54 @@
   </si>
   <si>
     <t>https://basic.10jqka.com.cn/{stock_code}/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fundgz.1234567.com.cn/js/{fund_code}.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取股/指当前数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取股/指当前现价数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取新债当前数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取新债当前转股价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指数当前信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指数当前价格以构建走势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取基金当前净值、估值、估算涨跌幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_code=基金代码；jzrq 基金开始日期、dwjz 净值、gsz 估算净值、gszzl 估算涨跌幅、gztime 时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -658,16 +691,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -681,7 +714,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -690,19 +723,19 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
@@ -713,7 +746,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -722,16 +755,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
@@ -748,10 +781,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>4</v>
@@ -777,10 +810,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
@@ -803,13 +836,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
@@ -826,7 +859,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -835,22 +868,22 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -858,7 +891,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -867,22 +900,22 @@
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -890,7 +923,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -899,19 +932,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -919,7 +952,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -928,22 +961,22 @@
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -960,19 +993,48 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -996,11 +1058,12 @@
     <hyperlink ref="J9" r:id="rId8" xr:uid="{6245A2A6-86AD-420C-8C47-C9B8AAA61432}"/>
     <hyperlink ref="J10" r:id="rId9" display="https://push2.eastmoney.com/api/qt/stock/get?invt=2&amp;fltt=1&amp;fields=f58,f107,f57,f43,f59,f169,f170,f152,f46,f60,f44,f45,f47,f48,f19,f532,f39,f161,f49,f171,f50,f86,f600,f601,f154,f84,f85,f168,f108,f116,f167,f164,f92,f71,f117,f292,f113,f114,f115,f119,f120,f121,f122,f296&amp;secid={stock_code}" xr:uid="{18F7636F-76C9-43BD-9436-77D31852B110}"/>
     <hyperlink ref="J11" r:id="rId10" xr:uid="{59C2A785-3353-484C-ADFA-3A76B3B852AF}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{A9AFC760-201D-489E-8123-43156CFA6462}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ZhangInvest/现有接口.xlsx
+++ b/ZhangInvest/现有接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject\ZhangInvest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4024FC4-827F-4B14-86D3-9F984D9ABD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3C2C54-148E-44FD-AA41-ED6F8620E648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18150" yWindow="6560" windowWidth="20300" windowHeight="12070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10450" yWindow="2730" windowWidth="27220" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,17 @@
   </si>
   <si>
     <t>fund_code=基金代码；jzrq 基金开始日期、dwjz 净值、gsz 估算净值、gszzl 估算涨跌幅、gztime 时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fund.eastmoney.com/pingzhongdata/{fund_code}.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_code=基金代码</t>
+  </si>
+  <si>
+    <t>获取基金历史净值（目前用于获取近3天）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1028,13 +1039,36 @@
         <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>61</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1059,11 +1093,12 @@
     <hyperlink ref="J10" r:id="rId9" display="https://push2.eastmoney.com/api/qt/stock/get?invt=2&amp;fltt=1&amp;fields=f58,f107,f57,f43,f59,f169,f170,f152,f46,f60,f44,f45,f47,f48,f19,f532,f39,f161,f49,f171,f50,f86,f600,f601,f154,f84,f85,f168,f108,f116,f167,f164,f92,f71,f117,f292,f113,f114,f115,f119,f120,f121,f122,f296&amp;secid={stock_code}" xr:uid="{18F7636F-76C9-43BD-9436-77D31852B110}"/>
     <hyperlink ref="J11" r:id="rId10" xr:uid="{59C2A785-3353-484C-ADFA-3A76B3B852AF}"/>
     <hyperlink ref="J12" r:id="rId11" xr:uid="{A9AFC760-201D-489E-8123-43156CFA6462}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{C43489F8-2E3E-40A0-981C-8CC646FB72AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>